--- a/files/04-better-metadata.xlsx
+++ b/files/04-better-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24422"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ed-dash\fair-bio-practice\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC1E8AC1-0C18-46B4-AE58-275BC7270766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54AE3CE3-446C-40B7-8D1C-626116BFA427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22935" yWindow="1545" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="96">
   <si>
     <t>Title:</t>
   </si>
@@ -74,7 +74,16 @@
     <t>Sosa M; Pintos A</t>
   </si>
   <si>
-    <t>Study date  2019-12-05 to 2020-01-05</t>
+    <t>Study start date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2019-12-05</t>
+  </si>
+  <si>
+    <t>End date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2020-01-05</t>
   </si>
   <si>
     <t>Metabolites reported per g of fresh weight of 6-week-old plant leaf rosettes</t>
@@ -101,7 +110,8 @@
     <t>Genotype</t>
   </si>
   <si>
-    <t>Light conditions</t>
+    <t>Light
+conditions</t>
   </si>
   <si>
     <t>Sucrose in Media
@@ -112,13 +122,13 @@
 </t>
   </si>
   <si>
-    <t>Starch mg/g FW</t>
-  </si>
-  <si>
-    <t>Sucrose(mg/g)</t>
-  </si>
-  <si>
-    <t>Chloro.</t>
+    <t>Starch</t>
+  </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
+  <si>
+    <t>Chlorophyll</t>
   </si>
   <si>
     <t>Comments</t>
@@ -217,7 +227,7 @@
     <t>D2</t>
   </si>
   <si>
-    <t>Sample lost</t>
+    <t>The recorded biomas is outside the typical range, not analysed further</t>
   </si>
   <si>
     <t>D3</t>
@@ -238,6 +248,12 @@
     <t>long days 18 h light</t>
   </si>
   <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
     <t>Funder</t>
   </si>
   <si>
@@ -284,6 +300,9 @@
   </si>
   <si>
     <t>TAIR ID</t>
+  </si>
+  <si>
+    <t>Light conditions</t>
   </si>
   <si>
     <t>Media</t>
@@ -415,7 +434,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,8 +472,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +522,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -510,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,6 +612,24 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,14 +947,14 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F29"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
@@ -940,12 +989,19 @@
       <c r="E2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="F2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -969,51 +1025,51 @@
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.450000000000003" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1022,16 +1078,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="26">
         <v>0</v>
@@ -1049,22 +1105,22 @@
         <v>1.8E-3</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="D8" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>24</v>
       </c>
       <c r="E8" s="26">
         <v>0</v>
@@ -1082,24 +1138,24 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="26">
         <v>0</v>
@@ -1117,26 +1173,26 @@
         <v>1.4E-3</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="28"/>
       <c r="N9" cm="1">
         <f t="array" ref="N9">AVERAGE(_xlfn._xlws.FILTER(F7:F26,C7:C26=L9))</f>
-        <v>0.17544999999999999</v>
+        <v>0.22544999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" s="26">
         <v>0</v>
@@ -1154,7 +1210,7 @@
         <v>2E-3</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M10" s="28"/>
       <c r="N10" cm="1">
@@ -1164,16 +1220,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11" s="26">
         <v>0</v>
@@ -1181,8 +1237,8 @@
       <c r="F11" s="41">
         <v>0.20349999999999999</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>39</v>
+      <c r="G11" s="45" t="s">
+        <v>42</v>
       </c>
       <c r="H11" s="42">
         <v>1.1000000000000001</v>
@@ -1194,16 +1250,16 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" s="24">
         <v>1</v>
@@ -1224,16 +1280,16 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13" s="24">
         <v>1</v>
@@ -1254,16 +1310,16 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
@@ -1277,23 +1333,23 @@
       <c r="H14" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>39</v>
+      <c r="I14" s="46" t="s">
+        <v>42</v>
       </c>
       <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>41</v>
       </c>
       <c r="E15" s="24">
         <v>1</v>
@@ -1314,16 +1370,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" s="24">
         <v>1</v>
@@ -1344,16 +1400,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
@@ -1373,16 +1429,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>24</v>
       </c>
       <c r="E18" s="27">
         <v>1</v>
@@ -1402,16 +1458,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19" s="27">
         <v>1</v>
@@ -1431,16 +1487,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" s="27">
         <v>1</v>
@@ -1460,16 +1516,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E21" s="27">
         <v>1</v>
@@ -1477,8 +1533,8 @@
       <c r="F21" s="34">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>39</v>
+      <c r="G21" s="47" t="s">
+        <v>42</v>
       </c>
       <c r="H21" s="37">
         <v>1.1000000000000001</v>
@@ -1489,16 +1545,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E22" s="31">
         <v>0</v>
@@ -1518,48 +1574,48 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E23" s="31">
         <v>0</v>
       </c>
       <c r="F23" s="36">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>39</v>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>42</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E24" s="31">
         <v>0</v>
@@ -1579,16 +1635,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E25" s="31">
         <v>0</v>
@@ -1608,16 +1664,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E26" s="31">
         <v>0</v>
@@ -1637,10 +1693,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -1648,13 +1704,19 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
+      <c r="F28" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5"/>
@@ -1701,10 +1763,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -1717,40 +1779,40 @@
       </c>
       <c r="C3" s="8"/>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C4" s="7"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1759,75 +1821,75 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="35.450000000000003" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G9">
         <v>0.1206</v>
@@ -1844,22 +1906,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="D10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="F10" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G10">
         <v>0.1275</v>
@@ -1876,22 +1938,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G11">
         <v>0.28720000000000001</v>
@@ -1908,22 +1970,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G12">
         <v>0.15240000000000001</v>
@@ -1940,28 +2002,28 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G13">
         <v>0.20349999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I13">
         <v>1.1000000000000001</v>
@@ -1972,22 +2034,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G14">
         <v>0.2104</v>
@@ -2004,22 +2066,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G15">
         <v>0.24349999999999999</v>
@@ -2036,22 +2098,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G16">
         <v>0.32129999999999997</v>
@@ -2063,27 +2125,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G17">
         <v>0.2135</v>
@@ -2100,22 +2162,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G18">
         <v>0.29199999999999998</v>
@@ -2135,34 +2197,34 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" s="9"/>
       <c r="E20" s="15" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C22" s="9"/>
     </row>
